--- a/OpenEMR Windows 10 v4.suite/Resources/WebFormData.xlsx
+++ b/OpenEMR Windows 10 v4.suite/Resources/WebFormData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/randyhesse/Documents/Demos/OpenEMR Windows 10 v3.suite/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/randyhesse/Documents/Demos/OpenEMR Windows 10 v4.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PatientList" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Prefix</t>
   </si>
@@ -165,6 +165,33 @@
   </si>
   <si>
     <t>SquarePants</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -483,7 +510,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,6 +554,9 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -553,6 +583,9 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
@@ -579,6 +612,9 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
@@ -605,6 +641,9 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
@@ -631,6 +670,9 @@
       <c r="B6" t="s">
         <v>31</v>
       </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
@@ -657,6 +699,9 @@
       <c r="B7" t="s">
         <v>34</v>
       </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
@@ -683,6 +728,9 @@
       <c r="B8" t="s">
         <v>37</v>
       </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" t="s">
         <v>38</v>
       </c>
@@ -709,6 +757,9 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
@@ -734,6 +785,9 @@
       </c>
       <c r="B10" t="s">
         <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>

--- a/OpenEMR Windows 10 v4.suite/Resources/WebFormData.xlsx
+++ b/OpenEMR Windows 10 v4.suite/Resources/WebFormData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -510,7 +510,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +593,7 @@
         <v>333333</v>
       </c>
       <c r="F3" s="1">
-        <v>41714</v>
+        <v>41715</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
